--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="H2">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="I2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="J2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.1965893745868</v>
+        <v>59.30472066666667</v>
       </c>
       <c r="N2">
-        <v>17.1965893745868</v>
+        <v>177.914162</v>
       </c>
       <c r="O2">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225773</v>
       </c>
       <c r="P2">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225772</v>
       </c>
       <c r="Q2">
-        <v>158.3086046418156</v>
+        <v>698.5956135392561</v>
       </c>
       <c r="R2">
-        <v>158.3086046418156</v>
+        <v>6287.360521853304</v>
       </c>
       <c r="S2">
-        <v>0.009621042807368326</v>
+        <v>0.03206102839883375</v>
       </c>
       <c r="T2">
-        <v>0.009621042807368326</v>
+        <v>0.03206102839883374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="H3">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="I3">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="J3">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>99.6152841405758</v>
+        <v>99.97060400000002</v>
       </c>
       <c r="N3">
-        <v>99.6152841405758</v>
+        <v>299.9118120000001</v>
       </c>
       <c r="O3">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212701</v>
       </c>
       <c r="P3">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212699</v>
       </c>
       <c r="Q3">
-        <v>917.0397856098982</v>
+        <v>1177.630122057456</v>
       </c>
       <c r="R3">
-        <v>917.0397856098982</v>
+        <v>10598.67109851711</v>
       </c>
       <c r="S3">
-        <v>0.05573215084154835</v>
+        <v>0.05404561960434431</v>
       </c>
       <c r="T3">
-        <v>0.05573215084154835</v>
+        <v>0.05404561960434429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="H4">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="I4">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="J4">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.7688547452234</v>
+        <v>30.96129866666667</v>
       </c>
       <c r="N4">
-        <v>30.7688547452234</v>
+        <v>92.88389600000001</v>
       </c>
       <c r="O4">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="P4">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="Q4">
-        <v>283.2523563272012</v>
+        <v>364.716791426848</v>
       </c>
       <c r="R4">
-        <v>283.2523563272012</v>
+        <v>3282.451122841632</v>
       </c>
       <c r="S4">
-        <v>0.0172143709539849</v>
+        <v>0.01673814604736367</v>
       </c>
       <c r="T4">
-        <v>0.0172143709539849</v>
+        <v>0.01673814604736367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="H5">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="I5">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="J5">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1965893745868</v>
+        <v>59.30472066666667</v>
       </c>
       <c r="N5">
-        <v>17.1965893745868</v>
+        <v>177.914162</v>
       </c>
       <c r="O5">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225773</v>
       </c>
       <c r="P5">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225772</v>
       </c>
       <c r="Q5">
-        <v>751.5646993766601</v>
+        <v>2599.999134009008</v>
       </c>
       <c r="R5">
-        <v>751.5646993766601</v>
+        <v>23399.99220608107</v>
       </c>
       <c r="S5">
-        <v>0.04567557247800923</v>
+        <v>0.1193231741752438</v>
       </c>
       <c r="T5">
-        <v>0.04567557247800923</v>
+        <v>0.1193231741752438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="H6">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="I6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="J6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>99.6152841405758</v>
+        <v>99.97060400000002</v>
       </c>
       <c r="N6">
-        <v>99.6152841405758</v>
+        <v>299.9118120000001</v>
       </c>
       <c r="O6">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212701</v>
       </c>
       <c r="P6">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212699</v>
       </c>
       <c r="Q6">
-        <v>4353.615094692655</v>
+        <v>4382.846439616609</v>
       </c>
       <c r="R6">
-        <v>4353.615094692655</v>
+        <v>39445.61795654948</v>
       </c>
       <c r="S6">
-        <v>0.264586484655169</v>
+        <v>0.2011443551103536</v>
       </c>
       <c r="T6">
-        <v>0.264586484655169</v>
+        <v>0.2011443551103536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="H7">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="I7">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="J7">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.7688547452234</v>
+        <v>30.96129866666667</v>
       </c>
       <c r="N7">
-        <v>30.7688547452234</v>
+        <v>92.88389600000001</v>
       </c>
       <c r="O7">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="P7">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="Q7">
-        <v>1344.730897682064</v>
+        <v>1357.385193222464</v>
       </c>
       <c r="R7">
-        <v>1344.730897682064</v>
+        <v>12216.46673900218</v>
       </c>
       <c r="S7">
-        <v>0.08172463878550676</v>
+        <v>0.0622952168387991</v>
       </c>
       <c r="T7">
-        <v>0.08172463878550676</v>
+        <v>0.06229521683879908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="H8">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="I8">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="J8">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.1965893745868</v>
+        <v>59.30472066666667</v>
       </c>
       <c r="N8">
-        <v>17.1965893745868</v>
+        <v>177.914162</v>
       </c>
       <c r="O8">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225773</v>
       </c>
       <c r="P8">
-        <v>0.1165232722272909</v>
+        <v>0.3117418698225772</v>
       </c>
       <c r="Q8">
-        <v>1007.448654103713</v>
+        <v>3494.122569732186</v>
       </c>
       <c r="R8">
-        <v>1007.448654103713</v>
+        <v>31447.10312758967</v>
       </c>
       <c r="S8">
-        <v>0.06122665694191335</v>
+        <v>0.1603576672484998</v>
       </c>
       <c r="T8">
-        <v>0.06122665694191335</v>
+        <v>0.1603576672484997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="H9">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="I9">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="J9">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.6152841405758</v>
+        <v>99.97060400000002</v>
       </c>
       <c r="N9">
-        <v>99.6152841405758</v>
+        <v>299.9118120000001</v>
       </c>
       <c r="O9">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212701</v>
       </c>
       <c r="P9">
-        <v>0.6749884305003446</v>
+        <v>0.5255066151212699</v>
       </c>
       <c r="Q9">
-        <v>5835.883020146455</v>
+        <v>5890.079909650342</v>
       </c>
       <c r="R9">
-        <v>5835.883020146455</v>
+        <v>53010.71918685308</v>
       </c>
       <c r="S9">
-        <v>0.3546697950036273</v>
+        <v>0.2703166404065722</v>
       </c>
       <c r="T9">
-        <v>0.3546697950036273</v>
+        <v>0.2703166404065721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="H10">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="I10">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="J10">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.7688547452234</v>
+        <v>30.96129866666667</v>
       </c>
       <c r="N10">
-        <v>30.7688547452234</v>
+        <v>92.88389600000001</v>
       </c>
       <c r="O10">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="P10">
-        <v>0.2084882972723645</v>
+        <v>0.1627515150561528</v>
       </c>
       <c r="Q10">
-        <v>1802.569138924548</v>
+        <v>1824.181468916775</v>
       </c>
       <c r="R10">
-        <v>1802.569138924548</v>
+        <v>16417.63322025098</v>
       </c>
       <c r="S10">
-        <v>0.1095492875328729</v>
+        <v>0.08371815216999003</v>
       </c>
       <c r="T10">
-        <v>0.1095492875328729</v>
+        <v>0.08371815216999001</v>
       </c>
     </row>
   </sheetData>
